--- a/Навантаження_по_викладачах_20_21.xlsx
+++ b/Навантаження_по_викладачах_20_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE294F04-2950-4952-AB56-F8B7B4B9EFD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7CDE-BDB3-4FCD-85E3-6ED578D55C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21043" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20809" uniqueCount="238">
   <si>
     <t>Завідувач кафедри</t>
   </si>
@@ -1899,7 +1899,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -1942,9 +1942,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -3575,7 +3572,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -3618,9 +3615,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -5123,7 +5117,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -5166,9 +5160,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -6794,7 +6785,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -6837,9 +6828,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -8508,7 +8496,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -8551,9 +8539,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -10179,7 +10164,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -10222,9 +10207,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -11807,7 +11789,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -11850,9 +11832,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -13393,7 +13372,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -13436,9 +13415,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -14979,7 +14955,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -15022,9 +14998,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -16650,7 +16623,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -16693,9 +16666,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -18236,7 +18206,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -18279,9 +18249,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -19864,7 +19831,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -19907,9 +19874,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -21492,7 +21456,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -21535,9 +21499,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -23120,7 +23081,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -23163,9 +23124,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -24093,8 +24051,8 @@
       <c r="R20" t="n" s="25">
         <v>0.0</v>
       </c>
-      <c r="S20" t="s" s="25">
-        <v>78</v>
+      <c r="S20" t="n" s="25">
+        <v>34.0</v>
       </c>
       <c r="T20" s="25">
         <f>SUM(E20:S20)</f>
@@ -24896,7 +24854,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -24939,9 +24897,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -26524,7 +26479,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -26567,9 +26522,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -28110,7 +28062,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -28153,9 +28105,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -29696,7 +29645,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -29739,9 +29688,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -31282,7 +31228,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -31325,9 +31271,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -33516,7 +33459,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -33559,9 +33502,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -35502,7 +35442,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -35545,9 +35485,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -37178,7 +37115,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -37221,9 +37158,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -39102,7 +39036,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -39145,9 +39079,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -40778,7 +40709,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -40821,9 +40752,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -42368,7 +42296,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -42411,9 +42339,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -44001,7 +43926,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -44044,9 +43969,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -46049,7 +45971,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -46092,9 +46014,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -47639,7 +47558,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -47682,9 +47601,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -49377,7 +49293,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -49420,9 +49336,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -51363,7 +51276,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -51406,9 +51319,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -53101,7 +53011,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -53144,9 +53054,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -55211,7 +55118,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -55254,9 +55161,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -56759,7 +56663,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -56802,9 +56706,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -58349,7 +58250,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -58392,9 +58293,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -60521,7 +60419,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -60564,9 +60462,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -62197,7 +62092,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -62240,9 +62135,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -64121,7 +64013,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -64164,9 +64056,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -65859,7 +65748,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -65902,9 +65791,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -67407,7 +67293,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -67450,9 +67336,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -68997,7 +68880,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -69040,9 +68923,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -71293,7 +71173,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -71336,9 +71216,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -73155,7 +73032,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -73198,9 +73075,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -74893,7 +74767,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -74936,9 +74810,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -76631,7 +76502,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -76674,9 +76545,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -79175,7 +79043,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -79218,9 +79086,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -80913,7 +80778,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -80956,9 +80821,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -82713,7 +82575,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -82756,9 +82618,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -84637,7 +84496,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -84680,9 +84539,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -86270,7 +86126,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -86313,9 +86169,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -87860,7 +87713,7 @@
     <sheetView tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -87903,9 +87756,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>

--- a/Навантаження_по_викладачах_20_21.xlsx
+++ b/Навантаження_по_викладачах_20_21.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20809" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20809" uniqueCount="239">
   <si>
     <t>Завідувач кафедри</t>
   </si>
@@ -231,22 +231,22 @@
     <t>здобувач</t>
   </si>
   <si>
-    <t>аспірант</t>
+    <t>Аспірант</t>
   </si>
   <si>
-    <t>докторант</t>
+    <t>Докторант</t>
   </si>
   <si>
-    <t>магістр</t>
+    <t>Магістр</t>
   </si>
   <si>
-    <t>фахівець</t>
+    <t>Фахівець</t>
   </si>
   <si>
-    <t>курсові</t>
+    <t>Курсові</t>
   </si>
   <si>
-    <t>курсові 5 курс</t>
+    <t>Курсові 5 курс</t>
   </si>
   <si>
     <t>Усього за осінь</t>
@@ -708,6 +708,9 @@
     <t>Викладач 45</t>
   </si>
   <si>
+    <t>курсові</t>
+  </si>
+  <si>
     <t>Викладач 16</t>
   </si>
   <si>
@@ -870,15 +873,29 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1135,13 +1152,148 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1208,6 +1360,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1938,15 +2110,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -2778,7 +2963,7 @@
     </row>
     <row r="20" s="34" customFormat="true">
       <c r="A20" t="s" s="25">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="25">
         <v>92</v>
@@ -2840,7 +3025,7 @@
     </row>
     <row r="21" s="34" customFormat="true">
       <c r="A21" t="s" s="25">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="25">
         <v>80</v>
@@ -3611,15 +3796,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -5156,15 +5354,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -6824,15 +7035,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -7711,7 +7935,7 @@
         <v>134</v>
       </c>
       <c r="D20" t="s" s="25">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E20" t="n" s="25">
         <v>0.0</v>
@@ -8535,15 +8759,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -10208,10 +10445,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -11828,15 +12078,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -13411,15 +13674,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -14994,15 +15270,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -16662,15 +16951,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -17416,7 +17718,7 @@
     </row>
     <row r="18" s="34" customFormat="true">
       <c r="A18" t="s" s="25">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="25">
         <v>80</v>
@@ -18245,15 +18547,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -19061,7 +19376,7 @@
     </row>
     <row r="19" s="34" customFormat="true">
       <c r="A19" t="s" s="25">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="25">
         <v>80</v>
@@ -19870,15 +20185,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -20624,7 +20952,7 @@
     </row>
     <row r="18" s="34" customFormat="true">
       <c r="A18" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s" s="25">
         <v>92</v>
@@ -20686,7 +21014,7 @@
     </row>
     <row r="19" s="34" customFormat="true">
       <c r="A19" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="25">
         <v>92</v>
@@ -21495,15 +21823,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -22249,7 +22590,7 @@
     </row>
     <row r="18" s="34" customFormat="true">
       <c r="A18" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s" s="25">
         <v>92</v>
@@ -22311,7 +22652,7 @@
     </row>
     <row r="19" s="34" customFormat="true">
       <c r="A19" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="25">
         <v>92</v>
@@ -23120,15 +23461,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -23936,7 +24290,7 @@
     </row>
     <row r="19" s="34" customFormat="true">
       <c r="A19" t="s" s="25">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="25">
         <v>92</v>
@@ -23998,16 +24352,16 @@
     </row>
     <row r="20" s="34" customFormat="true">
       <c r="A20" t="s" s="25">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="25">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="25">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s" s="25">
         <v>38</v>
@@ -24060,7 +24414,7 @@
     </row>
     <row r="21" s="34" customFormat="true">
       <c r="A21" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="25">
         <v>92</v>
@@ -24122,7 +24476,7 @@
     </row>
     <row r="22" s="34" customFormat="true">
       <c r="A22" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="25">
         <v>92</v>
@@ -24893,15 +25247,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -25715,7 +26082,7 @@
         <v>92</v>
       </c>
       <c r="C19" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s" s="25">
         <v>94</v>
@@ -26518,15 +26885,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -28101,15 +28481,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -29684,15 +30077,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -31272,10 +31678,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -33503,10 +33922,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -35486,10 +35918,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -37159,10 +37604,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -39080,10 +39538,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -40753,10 +41224,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -42340,10 +42824,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -43970,10 +44467,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -46015,10 +46525,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -47602,10 +48125,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -49337,10 +49873,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -51320,10 +51869,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -53055,10 +53617,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -55162,10 +55737,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -56707,10 +57295,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -58294,10 +58895,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -60463,10 +61077,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -62136,10 +62763,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -64057,10 +64697,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -65792,10 +66445,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -67337,10 +68003,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -68924,10 +69603,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -71217,10 +71909,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -73076,10 +73781,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -74811,10 +75529,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -76546,10 +77277,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -79087,10 +79831,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -80822,10 +81579,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -82619,10 +83389,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -84540,10 +85323,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -86170,10 +86966,23 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
@@ -87752,15 +88561,28 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">

--- a/Навантаження_по_викладачах_20_21.xlsx
+++ b/Навантаження_по_викладачах_20_21.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileSharing userName="DDDD" algorithmName="SHA-512" hashValue="Q4jp5PXJrbHVg1ne8xIiLYf+Mc6VKl84XrBHSDPboC0CU7PZ9ohbGa2NpFNrgjbNa7TDozqVT6anWlE7xPx2jQ==" saltValue="qLG5/LF+zqXRHhxnpyQI/Q==" spinCount="100000"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7CDE-BDB3-4FCD-85E3-6ED578D55C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1A32A6-1B54-4096-A35A-EF105D526E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20428" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20478" uniqueCount="239">
   <si>
     <t>Завідувач кафедри</t>
   </si>
@@ -729,6 +730,9 @@
   </si>
   <si>
     <t>Викладач 1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Викладач 3</t>
@@ -7145,7 +7149,9 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" t="s" s="26">
+        <v>220</v>
+      </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
@@ -10469,7 +10475,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -12069,7 +12075,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -13669,7 +13675,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -15355,7 +15361,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -16955,7 +16961,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -18598,7 +18604,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -19389,7 +19395,7 @@
     </row>
     <row r="19" s="34" customFormat="true">
       <c r="A19" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="25">
         <v>92</v>
@@ -19451,7 +19457,7 @@
     </row>
     <row r="20" s="34" customFormat="true">
       <c r="A20" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="25">
         <v>92</v>
@@ -20241,7 +20247,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -21032,7 +21038,7 @@
     </row>
     <row r="19" s="34" customFormat="true">
       <c r="A19" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="25">
         <v>92</v>
@@ -21094,7 +21100,7 @@
     </row>
     <row r="20" s="34" customFormat="true">
       <c r="A20" t="s" s="25">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="25">
         <v>92</v>
@@ -21884,7 +21890,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -22799,16 +22805,16 @@
     </row>
     <row r="21" s="34" customFormat="true">
       <c r="A21" t="s" s="25">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="25">
         <v>92</v>
       </c>
       <c r="C21" t="s" s="25">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s" s="25">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s" s="25">
         <v>38</v>
@@ -22861,7 +22867,7 @@
     </row>
     <row r="22" s="34" customFormat="true">
       <c r="A22" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="25">
         <v>92</v>
@@ -22923,7 +22929,7 @@
     </row>
     <row r="23" s="34" customFormat="true">
       <c r="A23" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="25">
         <v>92</v>
@@ -23694,7 +23700,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -24553,7 +24559,7 @@
         <v>92</v>
       </c>
       <c r="C20" t="s" s="25">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s" s="25">
         <v>94</v>
@@ -25337,7 +25343,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -26937,7 +26943,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -28537,7 +28543,7 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
